--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2367109.256890948</v>
+        <v>-2369762.53842141</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>337.3655157904971</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.102507298991684</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>212.7830746629392</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>47.14479454007378</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>179.7500837911983</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>36.09143880632982</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>108.574821146562</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,10 +911,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>277.3605237366027</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824781</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>96.16402746788884</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>168.8885499332619</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>255.4384179530389</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.8183662111604644</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>11.7671037116294</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>178.0597184196284</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>61.44013021076562</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1579,10 +1579,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892457</v>
+        <v>216.4795114578111</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>71.39698738222812</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="21">
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>194.9706438327688</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C25" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F25" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T25" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U25" t="n">
         <v>261.8998268972044</v>
@@ -2539,7 +2539,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y25" t="n">
         <v>194.3000058600551</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308922</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545303</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3436,13 +3436,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1604.498942504796</v>
+        <v>1238.326884986529</v>
       </c>
       <c r="C2" t="n">
-        <v>1604.498942504796</v>
+        <v>1238.326884986529</v>
       </c>
       <c r="D2" t="n">
-        <v>1263.725694231566</v>
+        <v>880.0611863797781</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>880.0611863797781</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>469.0752815901705</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>53.37053131445936</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4361,19 +4361,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>2209.570673130041</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X2" t="n">
-        <v>1994.638274480607</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="Y2" t="n">
-        <v>1604.498942504796</v>
+        <v>1624.92672505065</v>
       </c>
     </row>
     <row r="3">
@@ -4410,25 +4410,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>590.2049751143497</v>
       </c>
       <c r="L3" t="n">
-        <v>846.3061319081668</v>
+        <v>884.9085321458215</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>602.021613731249</v>
+        <v>393.6708322342397</v>
       </c>
       <c r="C4" t="n">
-        <v>602.021613731249</v>
+        <v>393.6708322342397</v>
       </c>
       <c r="D4" t="n">
-        <v>451.9049743189132</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>303.9918807365201</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1454.880378871267</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.115628253779</v>
+        <v>1165.762041375105</v>
       </c>
       <c r="V4" t="n">
-        <v>1011.659629459506</v>
+        <v>911.0775531692177</v>
       </c>
       <c r="W4" t="n">
-        <v>1011.659629459506</v>
+        <v>621.660383132257</v>
       </c>
       <c r="X4" t="n">
-        <v>783.6700785614887</v>
+        <v>393.6708322342397</v>
       </c>
       <c r="Y4" t="n">
-        <v>783.6700785614887</v>
+        <v>393.6708322342397</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1681.836054204828</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.97538618064</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204828</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601605</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4665,7 +4665,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125857</v>
@@ -4674,16 +4674,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>456.9449278938906</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C7" t="n">
-        <v>456.9449278938906</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>456.9449278938906</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1666.869595963939</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1445.102980533465</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1156.000113659108</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V7" t="n">
-        <v>1156.000113659108</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W7" t="n">
-        <v>866.5829436221477</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X7" t="n">
-        <v>638.5933927241304</v>
+        <v>776.2700148307995</v>
       </c>
       <c r="Y7" t="n">
-        <v>638.5933927241304</v>
+        <v>776.2700148307995</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.400891308158</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.438374367746</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.172675760996</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E8" t="n">
         <v>1190.154071768027</v>
@@ -4796,25 +4796,25 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4823,31 +4823,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3008.510772983962</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2677.447885640391</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>2677.447885640391</v>
       </c>
       <c r="X8" t="n">
-        <v>2952.140063348092</v>
+        <v>2303.982127379311</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.00073137228</v>
+        <v>2303.982127379311</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>773.7942044041906</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C10" t="n">
-        <v>604.8580214762837</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1915.408584743413</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1915.408584743413</v>
+        <v>1657.605789412053</v>
       </c>
       <c r="T10" t="n">
-        <v>1693.641969312938</v>
+        <v>1435.839173981579</v>
       </c>
       <c r="U10" t="n">
-        <v>1693.641969312938</v>
+        <v>1146.736307107222</v>
       </c>
       <c r="V10" t="n">
-        <v>1693.641969312938</v>
+        <v>1146.736307107222</v>
       </c>
       <c r="W10" t="n">
-        <v>1404.224799275978</v>
+        <v>1146.736307107222</v>
       </c>
       <c r="X10" t="n">
-        <v>1176.23524837796</v>
+        <v>918.7467562092049</v>
       </c>
       <c r="Y10" t="n">
-        <v>955.4426692344304</v>
+        <v>697.9541770656748</v>
       </c>
     </row>
     <row r="11">
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5130,16 +5130,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703094</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424025</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5200,49 +5200,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797729</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854704</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138395</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703094</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1022.872235754091</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>853.936052826184</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>703.8194134138482</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1653.302830625878</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1425.313279727861</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1204.520700584331</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5738,61 +5738,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>228.9331431646415</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.19898568143</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,46 +5969,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656824</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D25" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H25" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,58 +6218,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D28" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6415,10 +6415,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6555,10 +6555,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531932</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115002</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
         <v>483.825546038073</v>
@@ -6628,16 +6628,16 @@
         <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
         <v>2639.297491717215</v>
@@ -6652,19 +6652,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6680,40 +6680,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,25 +6780,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6841,10 +6841,10 @@
         <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6862,7 +6862,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6886,7 +6886,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3324.292621228102</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3951.890584782709</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4503.800315021996</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4503.800315021996</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319315</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656809</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150014</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942646</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384016</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7333,25 +7333,25 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,22 +7360,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384021</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,13 +7588,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345477</v>
@@ -7801,28 +7801,28 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L3" t="n">
-        <v>129.7511347056857</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>298.9160452634137</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247047</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>156.9480260155298</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,13 +22702,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>101.4706784781386</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22717,10 +22717,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>216.0462045174982</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>87.17534280744673</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>69.70496293143307</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>75.03697526434105</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>30.73901155626831</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1381298.378948196</v>
+        <v>1381298.378948195</v>
       </c>
     </row>
     <row r="7">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31766.15265272277</v>
+        <v>31766.15265272276</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.32998450028</v>
       </c>
       <c r="F2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.32998450029</v>
       </c>
       <c r="G2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.32998450029</v>
       </c>
       <c r="H2" t="n">
-        <v>40357.3299845003</v>
+        <v>40357.32998450029</v>
       </c>
       <c r="I2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="J2" t="n">
         <v>41052.08849321419</v>
@@ -26341,19 +26341,19 @@
         <v>41052.08849321419</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="M2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="O2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321419</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121061</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.842170943040401e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>19427.71799363176</v>
@@ -26390,13 +26390,13 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605457</v>
+        <v>49110.09270605452</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355118</v>
       </c>
       <c r="N3" t="n">
         <v>19427.71799363177</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>31928.28153540094</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312014</v>
+        <v>89134.17909312017</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.1790931202</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768959</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768959</v>
       </c>
       <c r="I4" t="n">
-        <v>17938.00358486241</v>
+        <v>17938.00358486236</v>
       </c>
       <c r="J4" t="n">
-        <v>17938.00358486243</v>
+        <v>17938.00358486236</v>
       </c>
       <c r="K4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486238</v>
       </c>
       <c r="L4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.0035848624</v>
       </c>
       <c r="M4" t="n">
         <v>17938.00358486236</v>
       </c>
       <c r="N4" t="n">
+        <v>17938.00358486237</v>
+      </c>
+      <c r="O4" t="n">
         <v>17938.00358486236</v>
       </c>
-      <c r="O4" t="n">
-        <v>17938.00358486237</v>
-      </c>
       <c r="P4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486236</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1207851.684898443</v>
+        <v>-1208315.981690467</v>
       </c>
       <c r="C6" t="n">
-        <v>-359454.7727734053</v>
+        <v>-359454.7727734052</v>
       </c>
       <c r="D6" t="n">
         <v>-156016.0311612993</v>
       </c>
       <c r="E6" t="n">
-        <v>-396124.8059685308</v>
+        <v>-396159.5438939666</v>
       </c>
       <c r="F6" t="n">
-        <v>-70712.34416117574</v>
+        <v>-70747.08208661141</v>
       </c>
       <c r="G6" t="n">
-        <v>-70712.3441611757</v>
+        <v>-70747.08208661141</v>
       </c>
       <c r="H6" t="n">
-        <v>-70712.34416117574</v>
+        <v>-70747.08208661147</v>
       </c>
       <c r="I6" t="n">
-        <v>-99477.74893919536</v>
+        <v>-99477.74893919533</v>
       </c>
       <c r="J6" t="n">
         <v>-247655.2087555461</v>
       </c>
       <c r="K6" t="n">
-        <v>-129160.1236516182</v>
+        <v>-129160.1236516181</v>
       </c>
       <c r="L6" t="n">
-        <v>-80050.03094556357</v>
+        <v>-80050.03094556363</v>
       </c>
       <c r="M6" t="n">
         <v>-165105.0588810754</v>
       </c>
       <c r="N6" t="n">
-        <v>-99477.74893919533</v>
+        <v>-99477.74893919534</v>
       </c>
       <c r="O6" t="n">
         <v>-80050.03094556357</v>
       </c>
       <c r="P6" t="n">
-        <v>-80050.03094556357</v>
+        <v>-80050.03094556362</v>
       </c>
     </row>
   </sheetData>
@@ -26701,28 +26701,28 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
         <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203971</v>
@@ -26738,7 +26738,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26923,16 +26923,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26960,7 +26960,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,16 +27160,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27258,13 +27258,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>17.31752583018584</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>40.99861220601369</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>256.6980706244455</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>108.8774149194509</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>83.66795271404845</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>20.88047539818004</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>126.4919521192229</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>250.1768057477415</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>77.16504895841794</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>11.70930691181348</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="21">
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="26">
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,16 +32087,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,7 +32312,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>624.1318526922785</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32476,7 +32476,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
         <v>965.6463440175675</v>
@@ -32549,7 +32549,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>261.5336801130329</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,25 +32792,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>477.8500485393217</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,25 +33026,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>614.7544723218309</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33199,7 +33199,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669223</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33439,7 +33439,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33500,7 +33500,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>271.1474903386692</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>328.903832042181</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>681.5735157229393</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,31 +34205,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34445,10 +34445,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34778,13 +34778,13 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L3" t="n">
-        <v>427.431495343536</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -34796,10 +34796,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096334</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191314</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,16 +35735,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>481.5356082478341</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36197,7 +36197,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>134.6960534463662</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>339.2956687594475</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,13 +36516,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N25" t="n">
         <v>445.9107804819471</v>
@@ -36534,7 +36534,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q25" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>476.2000925419567</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,13 +36753,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36847,7 +36847,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37148,7 +37148,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>128.5512458942248</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>550.231803639606</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38093,10 +38093,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>44.09163190712619</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
